--- a/data/kefir_biomass.xlsx
+++ b/data/kefir_biomass.xlsx
@@ -158,7 +158,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.5"/>
